--- a/Assets/Screens.xlsx
+++ b/Assets/Screens.xlsx
@@ -98,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="255"/>
@@ -230,6 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,7 +1270,7 @@
   <dimension ref="A1:DZ65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AY36" sqref="AY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,7 +4209,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="BY17" sqref="BY17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4493,7 +4508,7 @@
       <c r="CR1" s="1">
         <v>94</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="CS1" s="23">
         <v>95</v>
       </c>
       <c r="CT1" s="1">
@@ -4589,7 +4604,7 @@
       <c r="DX1" s="1">
         <v>126</v>
       </c>
-      <c r="DY1" s="1">
+      <c r="DY1" s="23">
         <v>127</v>
       </c>
     </row>
@@ -6156,7 +6171,7 @@
       <c r="CH16" s="22"/>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="24">
         <v>15</v>
       </c>
       <c r="B17" s="17"/>
@@ -8272,7 +8287,7 @@
       <c r="DY32" s="22"/>
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="24">
         <v>31</v>
       </c>
       <c r="B33" s="17"/>
@@ -12412,7 +12427,7 @@
       <c r="DY64" s="22"/>
     </row>
     <row r="65" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="24">
         <v>63</v>
       </c>
       <c r="H65" s="22"/>

--- a/Assets/Screens.xlsx
+++ b/Assets/Screens.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Logo</t>
   </si>
@@ -77,6 +77,12 @@
   <si>
     <t>G</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="255"/>
@@ -240,6 +252,7 @@
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4209,11 +4222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="BY17" sqref="BY17"/>
+      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,12 +4729,43 @@
       <c r="BY2" s="12"/>
       <c r="BZ2" s="12"/>
       <c r="CA2" s="13"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
       <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="CH2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="13"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -4805,9 +4849,39 @@
       <c r="BY3" s="15"/>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16"/>
-      <c r="CC3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="22"/>
+      <c r="CB3" s="22"/>
+      <c r="CC3" s="22"/>
+      <c r="CF3" s="21"/>
+      <c r="CH3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="16"/>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -4891,9 +4965,33 @@
       <c r="BY4" s="15"/>
       <c r="BZ4" s="15"/>
       <c r="CA4" s="16"/>
-      <c r="CC4" s="21"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="22"/>
+      <c r="CB4" s="22"/>
+      <c r="CC4" s="22"/>
+      <c r="CF4" s="21"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="15"/>
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="15"/>
+      <c r="CV4" s="15"/>
+      <c r="CW4" s="15"/>
+      <c r="CX4" s="15"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="15"/>
+      <c r="DB4" s="15"/>
+      <c r="DC4" s="15"/>
+      <c r="DD4" s="15"/>
+      <c r="DE4" s="16"/>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -4977,11 +5075,33 @@
       <c r="BY5" s="15"/>
       <c r="BZ5" s="15"/>
       <c r="CA5" s="16"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CF5" s="21"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="14"/>
+      <c r="CU5" s="15"/>
+      <c r="CV5" s="15"/>
+      <c r="CW5" s="15"/>
+      <c r="CX5" s="15"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="14"/>
+      <c r="DA5" s="15"/>
+      <c r="DB5" s="15"/>
+      <c r="DC5" s="15"/>
+      <c r="DD5" s="15"/>
+      <c r="DE5" s="16"/>
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -5065,40 +5185,33 @@
       <c r="BY6" s="15"/>
       <c r="BZ6" s="15"/>
       <c r="CA6" s="16"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="22"/>
-      <c r="CR6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="CS6" s="12"/>
-      <c r="CT6" s="12"/>
-      <c r="CU6" s="12"/>
-      <c r="CV6" s="12"/>
-      <c r="CW6" s="13"/>
-      <c r="CX6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="CY6" s="12"/>
-      <c r="CZ6" s="12"/>
-      <c r="DA6" s="12"/>
-      <c r="DB6" s="12"/>
-      <c r="DC6" s="13"/>
-      <c r="DD6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="DE6" s="12"/>
-      <c r="DF6" s="12"/>
-      <c r="DG6" s="12"/>
-      <c r="DH6" s="12"/>
-      <c r="DI6" s="13"/>
-      <c r="DJ6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="DK6" s="12"/>
-      <c r="DL6" s="12"/>
-      <c r="DM6" s="12"/>
-      <c r="DN6" s="12"/>
-      <c r="DO6" s="13"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CF6" s="21"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="15"/>
+      <c r="CV6" s="15"/>
+      <c r="CW6" s="15"/>
+      <c r="CX6" s="15"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="14"/>
+      <c r="DA6" s="15"/>
+      <c r="DB6" s="15"/>
+      <c r="DC6" s="15"/>
+      <c r="DD6" s="15"/>
+      <c r="DE6" s="16"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -5182,32 +5295,35 @@
       <c r="BY7" s="15"/>
       <c r="BZ7" s="15"/>
       <c r="CA7" s="16"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="22"/>
-      <c r="CR7" s="14"/>
-      <c r="CS7" s="15"/>
-      <c r="CT7" s="15"/>
+      <c r="CB7" s="22"/>
+      <c r="CC7" s="22"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="14"/>
       <c r="CU7" s="15"/>
       <c r="CV7" s="15"/>
-      <c r="CW7" s="16"/>
-      <c r="CX7" s="14"/>
-      <c r="CY7" s="15"/>
-      <c r="CZ7" s="15"/>
+      <c r="CW7" s="15"/>
+      <c r="CX7" s="15"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="14"/>
       <c r="DA7" s="15"/>
       <c r="DB7" s="15"/>
-      <c r="DC7" s="16"/>
-      <c r="DD7" s="14"/>
-      <c r="DE7" s="15"/>
-      <c r="DF7" s="15"/>
-      <c r="DG7" s="15"/>
-      <c r="DH7" s="15"/>
-      <c r="DI7" s="16"/>
-      <c r="DJ7" s="14"/>
-      <c r="DK7" s="15"/>
-      <c r="DL7" s="15"/>
-      <c r="DM7" s="15"/>
-      <c r="DN7" s="15"/>
-      <c r="DO7" s="16"/>
+      <c r="DC7" s="15"/>
+      <c r="DD7" s="15"/>
+      <c r="DE7" s="16"/>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -5293,34 +5409,31 @@
       <c r="CA8" s="16"/>
       <c r="CB8" s="22"/>
       <c r="CC8" s="22"/>
-      <c r="CD8" s="22"/>
-      <c r="CE8" s="22"/>
-      <c r="CG8" s="21"/>
-      <c r="CH8" s="22"/>
-      <c r="CR8" s="14"/>
-      <c r="CS8" s="15"/>
-      <c r="CT8" s="15"/>
+      <c r="CF8" s="21"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="15"/>
+      <c r="CQ8" s="15"/>
+      <c r="CR8" s="15"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="14"/>
       <c r="CU8" s="15"/>
       <c r="CV8" s="15"/>
-      <c r="CW8" s="16"/>
-      <c r="CX8" s="14"/>
-      <c r="CY8" s="15"/>
-      <c r="CZ8" s="15"/>
+      <c r="CW8" s="15"/>
+      <c r="CX8" s="15"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="14"/>
       <c r="DA8" s="15"/>
       <c r="DB8" s="15"/>
-      <c r="DC8" s="16"/>
-      <c r="DD8" s="14"/>
-      <c r="DE8" s="15"/>
-      <c r="DF8" s="15"/>
-      <c r="DG8" s="15"/>
-      <c r="DH8" s="15"/>
-      <c r="DI8" s="16"/>
-      <c r="DJ8" s="14"/>
-      <c r="DK8" s="15"/>
-      <c r="DL8" s="15"/>
-      <c r="DM8" s="15"/>
-      <c r="DN8" s="15"/>
-      <c r="DO8" s="16"/>
+      <c r="DC8" s="15"/>
+      <c r="DD8" s="15"/>
+      <c r="DE8" s="16"/>
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -5406,34 +5519,31 @@
       <c r="CA9" s="19"/>
       <c r="CB9" s="22"/>
       <c r="CC9" s="22"/>
-      <c r="CD9" s="22"/>
-      <c r="CE9" s="22"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="22"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15"/>
-      <c r="CU9" s="15"/>
-      <c r="CV9" s="15"/>
-      <c r="CW9" s="16"/>
-      <c r="CX9" s="14"/>
-      <c r="CY9" s="15"/>
-      <c r="CZ9" s="15"/>
-      <c r="DA9" s="15"/>
-      <c r="DB9" s="15"/>
-      <c r="DC9" s="16"/>
-      <c r="DD9" s="14"/>
-      <c r="DE9" s="15"/>
-      <c r="DF9" s="15"/>
-      <c r="DG9" s="15"/>
-      <c r="DH9" s="15"/>
-      <c r="DI9" s="16"/>
-      <c r="DJ9" s="14"/>
-      <c r="DK9" s="15"/>
-      <c r="DL9" s="15"/>
-      <c r="DM9" s="15"/>
-      <c r="DN9" s="15"/>
-      <c r="DO9" s="16"/>
+      <c r="CF9" s="21"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="18"/>
+      <c r="CP9" s="18"/>
+      <c r="CQ9" s="18"/>
+      <c r="CR9" s="18"/>
+      <c r="CS9" s="19"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="18"/>
+      <c r="CV9" s="18"/>
+      <c r="CW9" s="18"/>
+      <c r="CX9" s="18"/>
+      <c r="CY9" s="19"/>
+      <c r="CZ9" s="17"/>
+      <c r="DA9" s="18"/>
+      <c r="DB9" s="18"/>
+      <c r="DC9" s="18"/>
+      <c r="DD9" s="18"/>
+      <c r="DE9" s="19"/>
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -5543,34 +5653,7 @@
       <c r="CA10" s="13"/>
       <c r="CB10" s="22"/>
       <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="22"/>
-      <c r="CR10" s="14"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="15"/>
-      <c r="CU10" s="15"/>
-      <c r="CV10" s="15"/>
-      <c r="CW10" s="16"/>
-      <c r="CX10" s="14"/>
-      <c r="CY10" s="15"/>
-      <c r="CZ10" s="15"/>
-      <c r="DA10" s="15"/>
-      <c r="DB10" s="15"/>
-      <c r="DC10" s="16"/>
-      <c r="DD10" s="14"/>
-      <c r="DE10" s="15"/>
-      <c r="DF10" s="15"/>
-      <c r="DG10" s="15"/>
-      <c r="DH10" s="15"/>
-      <c r="DI10" s="16"/>
-      <c r="DJ10" s="14"/>
-      <c r="DK10" s="15"/>
-      <c r="DL10" s="15"/>
-      <c r="DM10" s="15"/>
-      <c r="DN10" s="15"/>
-      <c r="DO10" s="16"/>
+      <c r="CF10" s="21"/>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -5656,34 +5739,7 @@
       <c r="CA11" s="16"/>
       <c r="CB11" s="22"/>
       <c r="CC11" s="22"/>
-      <c r="CD11" s="22"/>
-      <c r="CE11" s="22"/>
-      <c r="CG11" s="21"/>
-      <c r="CH11" s="22"/>
-      <c r="CR11" s="14"/>
-      <c r="CS11" s="15"/>
-      <c r="CT11" s="15"/>
-      <c r="CU11" s="15"/>
-      <c r="CV11" s="15"/>
-      <c r="CW11" s="16"/>
-      <c r="CX11" s="14"/>
-      <c r="CY11" s="15"/>
-      <c r="CZ11" s="15"/>
-      <c r="DA11" s="15"/>
-      <c r="DB11" s="15"/>
-      <c r="DC11" s="16"/>
-      <c r="DD11" s="14"/>
-      <c r="DE11" s="15"/>
-      <c r="DF11" s="15"/>
-      <c r="DG11" s="15"/>
-      <c r="DH11" s="15"/>
-      <c r="DI11" s="16"/>
-      <c r="DJ11" s="14"/>
-      <c r="DK11" s="15"/>
-      <c r="DL11" s="15"/>
-      <c r="DM11" s="15"/>
-      <c r="DN11" s="15"/>
-      <c r="DO11" s="16"/>
+      <c r="CF11" s="21"/>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -5769,34 +5825,7 @@
       <c r="CA12" s="16"/>
       <c r="CB12" s="22"/>
       <c r="CC12" s="22"/>
-      <c r="CD12" s="22"/>
-      <c r="CE12" s="22"/>
-      <c r="CG12" s="21"/>
-      <c r="CH12" s="22"/>
-      <c r="CR12" s="14"/>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="15"/>
-      <c r="CU12" s="15"/>
-      <c r="CV12" s="15"/>
-      <c r="CW12" s="16"/>
-      <c r="CX12" s="14"/>
-      <c r="CY12" s="15"/>
-      <c r="CZ12" s="15"/>
-      <c r="DA12" s="15"/>
-      <c r="DB12" s="15"/>
-      <c r="DC12" s="16"/>
-      <c r="DD12" s="14"/>
-      <c r="DE12" s="15"/>
-      <c r="DF12" s="15"/>
-      <c r="DG12" s="15"/>
-      <c r="DH12" s="15"/>
-      <c r="DI12" s="16"/>
-      <c r="DJ12" s="14"/>
-      <c r="DK12" s="15"/>
-      <c r="DL12" s="15"/>
-      <c r="DM12" s="15"/>
-      <c r="DN12" s="15"/>
-      <c r="DO12" s="16"/>
+      <c r="CF12" s="21"/>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -5880,32 +5909,9 @@
       <c r="BY13" s="15"/>
       <c r="BZ13" s="15"/>
       <c r="CA13" s="16"/>
-      <c r="CG13" s="21"/>
-      <c r="CH13" s="22"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="18"/>
-      <c r="CT13" s="18"/>
-      <c r="CU13" s="18"/>
-      <c r="CV13" s="18"/>
-      <c r="CW13" s="19"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="18"/>
-      <c r="CZ13" s="18"/>
-      <c r="DA13" s="18"/>
-      <c r="DB13" s="18"/>
-      <c r="DC13" s="19"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="18"/>
-      <c r="DF13" s="18"/>
-      <c r="DG13" s="18"/>
-      <c r="DH13" s="18"/>
-      <c r="DI13" s="19"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="18"/>
-      <c r="DL13" s="18"/>
-      <c r="DM13" s="18"/>
-      <c r="DN13" s="18"/>
-      <c r="DO13" s="19"/>
+      <c r="CB13" s="22"/>
+      <c r="CC13" s="22"/>
+      <c r="CF13" s="21"/>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -5989,11 +5995,9 @@
       <c r="BY14" s="15"/>
       <c r="BZ14" s="15"/>
       <c r="CA14" s="16"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="22"/>
+      <c r="CB14" s="22"/>
+      <c r="CC14" s="22"/>
+      <c r="CF14" s="21"/>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -6077,10 +6081,9 @@
       <c r="BY15" s="15"/>
       <c r="BZ15" s="15"/>
       <c r="CA15" s="16"/>
-      <c r="CB15" s="21"/>
-      <c r="CD15" s="21"/>
-      <c r="CG15" s="21"/>
-      <c r="CH15" s="22"/>
+      <c r="CB15" s="22"/>
+      <c r="CC15" s="22"/>
+      <c r="CF15" s="21"/>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -6164,11 +6167,56 @@
       <c r="BY16" s="15"/>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16"/>
-      <c r="CB16" s="21"/>
-      <c r="CD16" s="21"/>
+      <c r="CB16" s="22"/>
+      <c r="CC16" s="22"/>
+      <c r="CD16" s="22"/>
+      <c r="CE16" s="22"/>
       <c r="CF16" s="21"/>
       <c r="CG16" s="21"/>
-      <c r="CH16" s="22"/>
+      <c r="CH16" s="21"/>
+      <c r="CI16" s="21"/>
+      <c r="CJ16" s="21"/>
+      <c r="CK16" s="21"/>
+      <c r="CL16" s="21"/>
+      <c r="CM16" s="21"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="21"/>
+      <c r="CP16" s="21"/>
+      <c r="CQ16" s="21"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
+      <c r="CT16" s="21"/>
+      <c r="CU16" s="21"/>
+      <c r="CV16" s="21"/>
+      <c r="CW16" s="21"/>
+      <c r="CX16" s="21"/>
+      <c r="CY16" s="21"/>
+      <c r="CZ16" s="21"/>
+      <c r="DA16" s="21"/>
+      <c r="DB16" s="21"/>
+      <c r="DC16" s="21"/>
+      <c r="DD16" s="21"/>
+      <c r="DE16" s="21"/>
+      <c r="DF16" s="21"/>
+      <c r="DG16" s="21"/>
+      <c r="DH16" s="21"/>
+      <c r="DI16" s="21"/>
+      <c r="DJ16" s="21"/>
+      <c r="DK16" s="21"/>
+      <c r="DL16" s="21"/>
+      <c r="DM16" s="21"/>
+      <c r="DN16" s="21"/>
+      <c r="DO16" s="21"/>
+      <c r="DP16" s="21"/>
+      <c r="DQ16" s="21"/>
+      <c r="DR16" s="21"/>
+      <c r="DS16" s="21"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
+      <c r="DV16" s="21"/>
+      <c r="DW16" s="21"/>
+      <c r="DX16" s="21"/>
+      <c r="DY16" s="21"/>
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -6252,69 +6300,21 @@
       <c r="BY17" s="18"/>
       <c r="BZ17" s="18"/>
       <c r="CA17" s="19"/>
-      <c r="CB17" s="21"/>
-      <c r="CC17" s="21"/>
-      <c r="CD17" s="21"/>
-      <c r="CG17" s="21"/>
-      <c r="CH17" s="21"/>
-      <c r="CI17" s="21"/>
-      <c r="CJ17" s="21"/>
-      <c r="CK17" s="21"/>
-      <c r="CL17" s="21"/>
-      <c r="CM17" s="21"/>
-      <c r="CN17" s="21"/>
-      <c r="CO17" s="21"/>
-      <c r="CP17" s="21"/>
-      <c r="CQ17" s="21"/>
-      <c r="CR17" s="21"/>
-      <c r="CS17" s="21"/>
-      <c r="CT17" s="21"/>
-      <c r="CU17" s="21"/>
-      <c r="CV17" s="21"/>
-      <c r="CW17" s="21"/>
-      <c r="CX17" s="21"/>
-      <c r="CY17" s="21"/>
-      <c r="CZ17" s="21"/>
-      <c r="DA17" s="21"/>
-      <c r="DB17" s="21"/>
-      <c r="DC17" s="21"/>
-      <c r="DD17" s="21"/>
-      <c r="DE17" s="21"/>
-      <c r="DF17" s="21"/>
-      <c r="DG17" s="21"/>
-      <c r="DH17" s="21"/>
-      <c r="DI17" s="21"/>
-      <c r="DJ17" s="21"/>
-      <c r="DK17" s="21"/>
-      <c r="DL17" s="21"/>
-      <c r="DM17" s="21"/>
-      <c r="DN17" s="21"/>
-      <c r="DO17" s="21"/>
-      <c r="DP17" s="21"/>
-      <c r="DQ17" s="21"/>
-      <c r="DR17" s="21"/>
-      <c r="DS17" s="21"/>
-      <c r="DT17" s="21"/>
-      <c r="DU17" s="21"/>
-      <c r="DV17" s="21"/>
-      <c r="DW17" s="21"/>
-      <c r="DX17" s="21"/>
-      <c r="DY17" s="21"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -6440,13 +6440,14 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -6572,13 +6573,14 @@
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -6704,13 +6706,14 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -6836,13 +6839,14 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -6968,13 +6972,14 @@
       <c r="A23" s="20">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="I23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -7100,13 +7105,14 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -7232,13 +7238,14 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -7364,15 +7371,14 @@
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -7498,13 +7504,14 @@
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="I27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -7630,13 +7637,14 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -7762,13 +7770,14 @@
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="I29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -7894,13 +7903,14 @@
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -8026,13 +8036,14 @@
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="I31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -8158,13 +8169,14 @@
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="I32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -8290,13 +8302,14 @@
       <c r="A33" s="24">
         <v>31</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -8422,15 +8435,14 @@
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="I34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -8556,13 +8568,14 @@
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="I35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -8688,13 +8701,14 @@
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="I36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -8820,13 +8834,14 @@
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="I37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -8952,13 +8967,14 @@
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="I38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -9084,13 +9100,14 @@
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="I39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -9216,13 +9233,14 @@
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="I40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -9348,13 +9366,14 @@
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="I41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -9480,8 +9499,14 @@
       <c r="A42" s="20">
         <v>40</v>
       </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -9607,7 +9632,14 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -9733,7 +9765,14 @@
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="I44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -9859,7 +9898,14 @@
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="I45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -9985,7 +10031,14 @@
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="I46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -10111,7 +10164,14 @@
       <c r="A47" s="20">
         <v>45</v>
       </c>
-      <c r="I47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -10237,7 +10297,14 @@
       <c r="A48" s="20">
         <v>46</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -10363,7 +10430,14 @@
       <c r="A49" s="20">
         <v>47</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -10489,7 +10563,14 @@
       <c r="A50" s="20">
         <v>48</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -10615,7 +10696,14 @@
       <c r="A51" s="20">
         <v>49</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -10741,7 +10829,14 @@
       <c r="A52" s="20">
         <v>50</v>
       </c>
-      <c r="I52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -10867,7 +10962,14 @@
       <c r="A53" s="20">
         <v>51</v>
       </c>
-      <c r="I53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -10993,7 +11095,14 @@
       <c r="A54" s="20">
         <v>52</v>
       </c>
-      <c r="I54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -11119,7 +11228,14 @@
       <c r="A55" s="20">
         <v>53</v>
       </c>
-      <c r="I55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -11245,7 +11361,14 @@
       <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="I56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -11371,15 +11494,14 @@
       <c r="A57" s="20">
         <v>55</v>
       </c>
-      <c r="B57" s="11">
-        <v>0</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
-      <c r="I57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -11505,13 +11627,14 @@
       <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="16"/>
-      <c r="I58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
@@ -11637,13 +11760,14 @@
       <c r="A59" s="20">
         <v>57</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
-      <c r="I59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
@@ -11769,13 +11893,14 @@
       <c r="A60" s="20">
         <v>58</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16"/>
-      <c r="I60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
@@ -11901,13 +12026,14 @@
       <c r="A61" s="20">
         <v>59</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
-      <c r="I61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
@@ -12033,13 +12159,14 @@
       <c r="A62" s="20">
         <v>60</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16"/>
-      <c r="I62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -12165,13 +12292,14 @@
       <c r="A63" s="20">
         <v>61</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
-      <c r="I63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
@@ -12297,14 +12425,14 @@
       <c r="A64" s="20">
         <v>62</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
@@ -12430,7 +12558,13 @@
       <c r="A65" s="24">
         <v>63</v>
       </c>
-      <c r="H65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>

--- a/Assets/Screens.xlsx
+++ b/Assets/Screens.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\SSM\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Splash" sheetId="4" r:id="rId2"/>
     <sheet name="Display" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,6 +268,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -310,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +351,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +403,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,7 +605,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.85546875" customWidth="1"/>
+    <col min="2" max="129" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">
@@ -1282,14 +1324,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DZ65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY36" sqref="AY36"/>
+    <sheetView topLeftCell="AF4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX44" sqref="AX44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.85546875" customWidth="1"/>
+    <col min="2" max="129" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">
@@ -4222,17 +4264,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="W43" sqref="W43"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.85546875" customWidth="1"/>
+    <col min="2" max="129" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">

--- a/Assets/Screens.xlsx
+++ b/Assets/Screens.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\SSM\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
     <sheet name="Splash" sheetId="4" r:id="rId2"/>
     <sheet name="Display" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Logo</t>
   </si>
@@ -88,11 +84,35 @@
   <si>
     <t>W</t>
   </si>
+  <si>
+    <t>VG_WIDTH</t>
+  </si>
+  <si>
+    <t>VG_MAX</t>
+  </si>
+  <si>
+    <t>VG TL X</t>
+  </si>
+  <si>
+    <t>VG TL Y</t>
+  </si>
+  <si>
+    <t>VG BR X</t>
+  </si>
+  <si>
+    <t>VG BR Y</t>
+  </si>
+  <si>
+    <t>VG_SCALE</t>
+  </si>
+  <si>
+    <t>VG_HEIGHT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,26 +371,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,7 +591,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.875" customWidth="1"/>
+    <col min="2" max="129" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">
@@ -1331,7 +1317,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.875" customWidth="1"/>
+    <col min="2" max="129" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">
@@ -4264,17 +4250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A2:XFD15"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="129" width="2.875" customWidth="1"/>
+    <col min="2" max="129" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="35.25" x14ac:dyDescent="0.25">
@@ -12733,4 +12719,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>125</v>
+      </c>
+      <c r="C1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f>B3/B2</f>
+        <v>2.25</v>
+      </c>
+      <c r="C4">
+        <f>C3/C2</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>B3-(B2*B4 )+17</f>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>C3-(C2*C4 )+17</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f>2+B1</f>
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <f>2+C1</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f>B2*B4+17</f>
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <f>C2*C4+17</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>